--- a/Redes.xlsx
+++ b/Redes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t># subred</t>
   </si>
@@ -321,6 +321,21 @@
   </si>
   <si>
     <t>172.16.1.226 - 172.16.1.230</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>172.16.1.232</t>
+  </si>
+  <si>
+    <t>172.16.1.235</t>
+  </si>
+  <si>
+    <t>172.16.1.233</t>
+  </si>
+  <si>
+    <t>fastEthernet, ethernet y serial</t>
   </si>
 </sst>
 </file>
@@ -697,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +933,29 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -927,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1053,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>76</v>
@@ -1032,7 +1070,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>78</v>
@@ -1145,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>92</v>
@@ -1164,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1229,7 @@
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -1205,15 +1243,29 @@
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2811</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1228,7 +1280,7 @@
   <dimension ref="B3:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
